--- a/doc/渠道商批量上传模板.xlsx
+++ b/doc/渠道商批量上传模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>账号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>渠道商状态（停用，启用）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -114,18 +110,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>610322198711105000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>340202197902288714</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>340202197902288714</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -141,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,15 +280,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -608,7 +583,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,25 +710,16 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -779,7 +745,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1102,22 +1067,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,17 +1097,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1159,17 +1120,14 @@
       <c r="E2">
         <v>15021500001</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1185,17 +1143,14 @@
       <c r="E3">
         <v>15021500002</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1211,17 +1166,14 @@
       <c r="E4">
         <v>15021500003</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1237,17 +1189,14 @@
       <c r="E5">
         <v>15021500004</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1263,231 +1212,174 @@
       <c r="E6">
         <v>15021500005</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" s="1"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" s="1"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" s="1"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" s="1"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" s="1"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" s="1"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" s="1"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="1"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="1"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="1"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" s="1"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" s="1"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" s="1"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" s="1"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" s="1"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" s="1"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" s="1"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" s="1"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="1"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="1"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="1"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="1"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="1"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="1"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C56" s="1"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="1"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="1"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="1"/>
-      <c r="F60" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
